--- a/docs/StructureDefinition-message-header.xlsx
+++ b/docs/StructureDefinition-message-header.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$94</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2964" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3234" uniqueCount="510">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://roadxcore.com/fhir/v1/StructureDefinition/message-header</t>
+    <t>https://www.sehatuk.ae/uae-fhir/r4/StructureDefinition/message-header</t>
   </si>
   <si>
     <t>Version</t>
@@ -39,13 +39,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>RoadxCoreMessageHeader</t>
+    <t>SehatukCoreMessageHeader</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t xml:space="preserve">RoadxCore  Message Header </t>
+    <t xml:space="preserve">SehatukCore  Message Header </t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-19T11:55:47+04:00</t>
+    <t>2022-11-19T09:21:48+04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>RoadxCore Message Header Profile</t>
+    <t>SehatukCore Message Header Profile</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -243,10 +243,6 @@
     <t>The header for a message exchange that is either requesting or responding to an action.  The reference(s) that are the subject of the action as well as other information related to the action are typically transmitted in a bundle in which the MessageHeader resource instance is the first resource in the bundle.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}valid-resource-id-uuid:Must be a valid uuid {$this.id.exists() and $this.id.matches('^[0-9a-f]{8}-[0-9a-f]{4}-[0-9a-f]{4}-[0-9a-f]{4}-[0-9a-f]{12}$')}</t>
-  </si>
-  <si>
     <t>MSH / MSA / ERR</t>
   </si>
   <si>
@@ -260,47 +256,51 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>MessageHeader.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>MessageHeader.meta.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>MessageHeader.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>MessageHeader.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -353,10 +353,6 @@
     <t>MessageHeader.meta.versionId</t>
   </si>
   <si>
-    <t xml:space="preserve">id
-</t>
-  </si>
-  <si>
     <t>Version specific identifier</t>
   </si>
   <si>
@@ -577,10 +573,43 @@
     <t>MessageHeader.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>originalRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.sehatuk.ae/uae-fhir/r4/StructureDefinition/extension-original-request}
+</t>
+  </si>
+  <si>
+    <t>Original Request Extension</t>
+  </si>
+  <si>
+    <t>reference to the original request related to the message Header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>originalResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.sehatuk.ae/uae-fhir/r4/StructureDefinition/extension-original-response}
+</t>
+  </si>
+  <si>
+    <t>Original Response Extension</t>
+  </si>
+  <si>
+    <t>reference to the original response related to the message Header</t>
   </si>
   <si>
     <t>MessageHeader.modifierExtension</t>
@@ -642,7 +671,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://roadxcore.com/terminology/ValueSet/roadx-message-events</t>
+    <t>https://www.sehatuk.ae/terminology/ValueSet/sehatuk-message-events</t>
   </si>
   <si>
     <t>MessageHeader.event[x].id</t>
@@ -879,7 +908,7 @@
     <t>MessageHeader.destination.receiver</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://roadxcore.com/fhir/v1/StructureDefinition/organization)
+    <t xml:space="preserve">Reference(https://www.sehatuk.ae/uae-fhir/r4/StructureDefinition/organization)
 </t>
   </si>
   <si>
@@ -921,6 +950,10 @@
   <si>
     <t xml:space="preserve">ref-1
 </t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+valid-relative-reference:Reference should be a relative reference within message bundle using existing entry.fullUrl {Bundle.type='message' implies matches('((http|https)://([A-Za-z0-9-.:%$]*/)+)(Account|ActivityDefinition|AdverseEvent|AllergyIntolerance|Appointment|AppointmentResponse|AuditEvent|Basic|Binary|BiologicallyDerivedProduct|BodyStructure|Bundle|CapabilityStatement|CarePlan|CareTeam|CatalogEntry|ChargeItem|ChargeItemDefinition|Claim|ClaimResponse|ClinicalImpression|CodeSystem|Communication|CommunicationRequest|CompartmentDefinition|Composition|ConceptMap|Condition|Consent|Contract|Coverage|CoverageEligibilityRequest|CoverageEligibilityResponse|DetectedIssue|Device|DeviceDefinition|DeviceMetric|DeviceRequest|DeviceUseStatement|DiagnosticReport|DocumentManifest|DocumentReference|EffectEvidenceSynthesis|Encounter|Endpoint|EnrollmentRequest|EnrollmentResponse|EpisodeOfCare|EventDefinition|Evidence|EvidenceVariable|ExampleScenario|ExplanationOfBenefit|FamilyMemberHistory|Flag|Goal|GraphDefinition|Group|GuidanceResponse|HealthcareService|ImagingStudy|Immunization|ImmunizationEvaluation|ImmunizationRecommendation|ImplementationGuide|InsurancePlan|Invoice|Library|Linkage|List|Location|Measure|MeasureReport|Media|Medication|MedicationAdministration|MedicationDispense|MedicationKnowledge|MedicationRequest|MedicationStatement|MedicinalProduct|MedicinalProductAuthorization|MedicinalProductContraindication|MedicinalProductIndication|MedicinalProductIngredient|MedicinalProductInteraction|MedicinalProductManufactured|MedicinalProductPackaged|MedicinalProductPharmaceutical|MedicinalProductUndesirableEffect|MessageDefinition|MessageHeader|MolecularSequence|NamingSystem|NutritionOrder|Observation|ObservationDefinition|OperationDefinition|OperationOutcome|Organization|OrganizationAffiliation|Patient|PaymentNotice|PaymentReconciliation|Person|PlanDefinition|Practitioner|PractitionerRole|Procedure|Provenance|Questionnaire|QuestionnaireResponse|RelatedPerson|RequestGroup|ResearchDefinition|ResearchElementDefinition|ResearchStudy|ResearchSubject|RiskAssessment|RiskEvidenceSynthesis|Schedule|SearchParameter|ServiceRequest|Slot|Specimen|SpecimenDefinition|StructureDefinition|StructureMap|Subscription|Substance|SubstanceNucleicAcid|SubstancePolymer|SubstanceProtein|SubstanceReferenceInformation|SubstanceSourceMaterial|SubstanceSpecification|SupplyDelivery|SupplyRequest|Task|TerminologyCapabilities|TestReport|TestScript|ValueSet|VerificationResult|VisionPrescription)/[A-Za-z0-9-.]{1,64}(/_history/[A-Za-z0-9-.]{1,64})?')}</t>
   </si>
   <si>
     <t>MessageHeader.destination.receiver.type</t>
@@ -1518,11 +1551,28 @@
     <t>Every message event is about actual data, a single resource, that is identified in the definition of the event, and perhaps some or all linked resources.</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:$this.resolve()}
-</t>
-  </si>
-  <si>
     <t>unique(./controlAct[classCode="CACT" and classCode="EVN" and isNormalAct()]/participation[typeCode="SUBJ" and isNormalParticipation]/role or ./controlAct[classCode="CACT" and classCode="EVN" and isNormalAct()]/outboundRelationship[typeCode="SBJ" and isNormalActRelatoinship]/target)</t>
+  </si>
+  <si>
+    <t>MessageHeader.focus.id</t>
+  </si>
+  <si>
+    <t>MessageHeader.focus.extension</t>
+  </si>
+  <si>
+    <t>MessageHeader.focus.reference</t>
+  </si>
+  <si>
+    <t>MessageHeader.focus.type</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>MessageHeader.focus.identifier</t>
+  </si>
+  <si>
+    <t>MessageHeader.focus.display</t>
   </si>
   <si>
     <t>MessageHeader.definition</t>
@@ -1843,7 +1893,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL86"/>
+  <dimension ref="A1:AL94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1852,17 +1902,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.0078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.21484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="50.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.29296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.1484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.06640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="65.8515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="65.85546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1871,25 +1921,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.13671875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.22265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.5859375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.20703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.4296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.84375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.05859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="167.11328125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2102,13 +2152,13 @@
         <v>70</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>76</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>70</v>
@@ -2116,7 +2166,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2124,31 +2174,31 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G3" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="H3" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2198,13 +2248,13 @@
         <v>70</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>70</v>
@@ -2224,7 +2274,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2232,28 +2282,28 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="F4" t="s" s="2">
+      <c r="H4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2304,19 +2354,19 @@
         <v>70</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>70</v>
@@ -2330,7 +2380,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2341,7 +2391,7 @@
         <v>71</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>70</v>
@@ -2353,7 +2403,7 @@
         <v>70</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>93</v>
@@ -2416,7 +2466,7 @@
         <v>71</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>70</v>
@@ -2555,28 +2605,28 @@
         <v>71</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I7" t="s" s="2">
+      <c r="J7" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="J7" t="s" s="2">
+      <c r="K7" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2626,19 +2676,19 @@
         <v>70</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>70</v>
@@ -2652,7 +2702,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2663,28 +2713,28 @@
         <v>71</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J8" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2734,19 +2784,19 @@
         <v>70</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>70</v>
@@ -2760,7 +2810,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2771,28 +2821,28 @@
         <v>71</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2842,19 +2892,19 @@
         <v>70</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>70</v>
@@ -2868,7 +2918,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2876,7 +2926,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>72</v>
@@ -2888,19 +2938,19 @@
         <v>70</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2950,7 +3000,7 @@
         <v>70</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>71</v>
@@ -2962,7 +3012,7 @@
         <v>70</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>70</v>
@@ -2976,7 +3026,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2996,19 +3046,19 @@
         <v>70</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -3034,31 +3084,31 @@
         <v>70</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>71</v>
@@ -3070,7 +3120,7 @@
         <v>70</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>70</v>
@@ -3084,7 +3134,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3104,19 +3154,19 @@
         <v>70</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3142,31 +3192,31 @@
         <v>70</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>71</v>
@@ -3178,7 +3228,7 @@
         <v>70</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>70</v>
@@ -3192,7 +3242,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3203,28 +3253,28 @@
         <v>71</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3274,19 +3324,19 @@
         <v>70</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>70</v>
@@ -3300,7 +3350,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3311,7 +3361,7 @@
         <v>71</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>70</v>
@@ -3323,16 +3373,16 @@
         <v>70</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3358,43 +3408,43 @@
         <v>70</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="AF14" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>70</v>
@@ -3408,18 +3458,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>71</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>70</v>
@@ -3431,16 +3481,16 @@
         <v>70</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3490,25 +3540,25 @@
         <v>70</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>70</v>
@@ -3516,11 +3566,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3539,16 +3589,16 @@
         <v>70</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3598,7 +3648,7 @@
         <v>70</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>71</v>
@@ -3616,7 +3666,7 @@
         <v>70</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>70</v>
@@ -3624,11 +3674,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3650,14 +3700,12 @@
         <v>99</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M17" t="s" s="2">
-        <v>102</v>
-      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>70</v>
@@ -3694,16 +3742,14 @@
         <v>70</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>181</v>
@@ -3724,51 +3770,49 @@
         <v>70</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" hidden="true">
-      <c r="A18" t="s" s="2">
+      <c r="B18" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>71</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>70</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>99</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N18" t="s" s="2">
         <v>185</v>
       </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>70</v>
       </c>
@@ -3816,7 +3860,7 @@
         <v>70</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>71</v>
@@ -3825,7 +3869,7 @@
         <v>72</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>70</v>
+        <v>186</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>107</v>
@@ -3834,51 +3878,49 @@
         <v>70</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AL18" t="s" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" hidden="true">
-      <c r="A19" t="s" s="2">
+      <c r="B19" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>70</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G19" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="F19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>70</v>
-      </c>
       <c r="H19" t="s" s="2">
         <v>70</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M19" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="N19" t="s" s="2">
-        <v>191</v>
-      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>70</v>
       </c>
@@ -3902,92 +3944,92 @@
         <v>70</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>192</v>
+        <v>70</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AB19" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="AC19" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>195</v>
+        <v>70</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>70</v>
+        <v>186</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>196</v>
+        <v>70</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>197</v>
+        <v>70</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>198</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H20" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="F20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>70</v>
-      </c>
       <c r="I20" t="s" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>70</v>
@@ -4012,11 +4054,13 @@
         <v>70</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="X20" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Y20" t="s" s="2">
-        <v>201</v>
+        <v>70</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>70</v>
@@ -4034,33 +4078,33 @@
         <v>70</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>196</v>
+        <v>70</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>198</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4068,31 +4112,35 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>70</v>
-      </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>93</v>
+        <v>197</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>70</v>
       </c>
@@ -4116,91 +4164,93 @@
         <v>70</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>70</v>
+        <v>202</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>70</v>
+        <v>204</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>95</v>
+        <v>196</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>70</v>
+        <v>205</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>96</v>
+        <v>206</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>70</v>
+        <v>207</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="C22" t="s" s="2">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>70</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>100</v>
+        <v>197</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>70</v>
       </c>
@@ -4224,57 +4274,55 @@
         <v>70</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>70</v>
+        <v>205</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>96</v>
+        <v>206</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>70</v>
+        <v>207</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4282,35 +4330,31 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>70</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>205</v>
+        <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>70</v>
       </c>
@@ -4358,25 +4402,25 @@
         <v>70</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>209</v>
+        <v>95</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>211</v>
+        <v>96</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>70</v>
@@ -4388,14 +4432,14 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>71</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>70</v>
@@ -4404,19 +4448,19 @@
         <v>70</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>213</v>
+        <v>100</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>215</v>
+        <v>102</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4454,37 +4498,37 @@
         <v>70</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>216</v>
+        <v>106</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>217</v>
+        <v>70</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>218</v>
+        <v>96</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>70</v>
@@ -4492,7 +4536,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4500,32 +4544,34 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G25" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="H25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N25" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>70</v>
@@ -4574,25 +4620,25 @@
         <v>70</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>70</v>
@@ -4600,7 +4646,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4611,30 +4657,30 @@
         <v>71</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>70</v>
       </c>
@@ -4682,33 +4728,33 @@
         <v>70</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4716,34 +4762,32 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G27" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>70</v>
-      </c>
       <c r="H27" t="s" s="2">
         <v>70</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>70</v>
@@ -4792,25 +4836,25 @@
         <v>70</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>70</v>
@@ -4818,7 +4862,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4829,7 +4873,7 @@
         <v>71</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>70</v>
@@ -4838,22 +4882,20 @@
         <v>70</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>243</v>
+        <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>70</v>
@@ -4902,33 +4944,33 @@
         <v>70</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>249</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4939,28 +4981,32 @@
         <v>71</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>70</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>81</v>
+        <v>243</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>93</v>
+        <v>244</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>70</v>
       </c>
@@ -5008,25 +5054,25 @@
         <v>70</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>95</v>
+        <v>248</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>96</v>
+        <v>250</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>70</v>
@@ -5038,7 +5084,7 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5054,21 +5100,23 @@
         <v>70</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>99</v>
+        <v>252</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>100</v>
+        <v>253</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>101</v>
+        <v>254</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>70</v>
       </c>
@@ -5116,7 +5164,7 @@
         <v>70</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>106</v>
+        <v>251</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>71</v>
@@ -5128,57 +5176,53 @@
         <v>70</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>96</v>
+        <v>257</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>70</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>253</v>
+        <v>70</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>71</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>70</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>254</v>
+        <v>93</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>70</v>
       </c>
@@ -5226,25 +5270,25 @@
         <v>70</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>256</v>
+        <v>95</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>70</v>
@@ -5252,18 +5296,18 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>71</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>70</v>
@@ -5272,21 +5316,21 @@
         <v>70</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>258</v>
+        <v>100</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>70</v>
       </c>
@@ -5334,25 +5378,25 @@
         <v>70</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>257</v>
+        <v>106</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>261</v>
+        <v>70</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>262</v>
+        <v>96</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>70</v>
@@ -5360,40 +5404,42 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>70</v>
+        <v>262</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>71</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H33" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>70</v>
-      </c>
       <c r="I33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="K33" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M33" s="2"/>
+      <c r="M33" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N33" t="s" s="2">
-        <v>267</v>
+        <v>194</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>70</v>
@@ -5442,33 +5488,33 @@
         <v>70</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>268</v>
+        <v>177</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5476,34 +5522,32 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="F34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>270</v>
+        <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>70</v>
@@ -5552,33 +5596,33 @@
         <v>70</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5586,32 +5630,32 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="F35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>70</v>
@@ -5660,33 +5704,33 @@
         <v>70</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AF35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>283</v>
-      </c>
       <c r="AL35" t="s" s="2">
-        <v>249</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5694,31 +5738,35 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G36" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>70</v>
-      </c>
       <c r="H36" t="s" s="2">
         <v>70</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>81</v>
+        <v>279</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>93</v>
+        <v>280</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>70</v>
       </c>
@@ -5766,67 +5814,67 @@
         <v>70</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>95</v>
+        <v>278</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>70</v>
+        <v>284</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>96</v>
+        <v>285</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>70</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>99</v>
+        <v>287</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>100</v>
+        <v>288</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>70</v>
       </c>
@@ -5862,45 +5910,45 @@
         <v>70</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>106</v>
+        <v>286</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>70</v>
+        <v>291</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>96</v>
+        <v>292</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>70</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5911,7 +5959,7 @@
         <v>71</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>70</v>
@@ -5920,20 +5968,18 @@
         <v>70</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>287</v>
+        <v>93</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>70</v>
@@ -5982,25 +6028,25 @@
         <v>70</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>290</v>
+        <v>95</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>291</v>
+        <v>70</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>70</v>
@@ -6008,18 +6054,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>70</v>
@@ -6028,19 +6074,19 @@
         <v>70</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>293</v>
+        <v>100</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>294</v>
+        <v>101</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>295</v>
+        <v>102</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6051,7 +6097,7 @@
         <v>70</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>296</v>
+        <v>70</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>70</v>
@@ -6066,47 +6112,49 @@
         <v>70</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="X39" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Y39" t="s" s="2">
-        <v>297</v>
+        <v>70</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>298</v>
+        <v>106</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>70</v>
@@ -6114,7 +6162,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6125,28 +6173,28 @@
         <v>71</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J40" t="s" s="2">
-        <v>300</v>
+        <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6196,25 +6244,25 @@
         <v>70</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>91</v>
+        <v>301</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>305</v>
+        <v>177</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>70</v>
@@ -6222,7 +6270,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6230,30 +6278,32 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>70</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>93</v>
+        <v>303</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>70</v>
@@ -6263,7 +6313,7 @@
         <v>70</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>70</v>
+        <v>306</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>70</v>
@@ -6278,13 +6328,11 @@
         <v>70</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="X41" s="2"/>
       <c r="Y41" t="s" s="2">
-        <v>70</v>
+        <v>307</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>70</v>
@@ -6302,25 +6350,25 @@
         <v>70</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>95</v>
+        <v>308</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>70</v>
@@ -6328,18 +6376,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>71</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>70</v>
@@ -6348,19 +6396,19 @@
         <v>70</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>99</v>
+        <v>310</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>100</v>
+        <v>311</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>101</v>
+        <v>312</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>102</v>
+        <v>313</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6398,37 +6446,37 @@
         <v>70</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>106</v>
+        <v>314</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>96</v>
+        <v>315</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>70</v>
@@ -6436,7 +6484,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6447,32 +6495,28 @@
         <v>71</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>70</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>309</v>
+        <v>93</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>70</v>
       </c>
@@ -6496,13 +6540,13 @@
         <v>70</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>313</v>
+        <v>70</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>314</v>
+        <v>70</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>70</v>
@@ -6520,25 +6564,25 @@
         <v>70</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>315</v>
+        <v>95</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>178</v>
+        <v>70</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>316</v>
+        <v>96</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>70</v>
@@ -6550,14 +6594,14 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>71</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>70</v>
@@ -6566,23 +6610,21 @@
         <v>70</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>318</v>
+        <v>99</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>319</v>
+        <v>100</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>320</v>
+        <v>101</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>70</v>
       </c>
@@ -6606,47 +6648,49 @@
         <v>70</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Y44" t="s" s="2">
-        <v>323</v>
+        <v>70</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>324</v>
+        <v>106</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>325</v>
+        <v>70</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>316</v>
+        <v>96</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>70</v>
@@ -6654,7 +6698,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6665,31 +6709,31 @@
         <v>71</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H45" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>70</v>
-      </c>
       <c r="I45" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>70</v>
@@ -6702,7 +6746,7 @@
         <v>70</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>331</v>
+        <v>70</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>70</v>
@@ -6714,13 +6758,13 @@
         <v>70</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>70</v>
+        <v>323</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>70</v>
+        <v>324</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>70</v>
@@ -6738,25 +6782,25 @@
         <v>70</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>333</v>
+        <v>177</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>70</v>
@@ -6764,7 +6808,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6775,30 +6819,32 @@
         <v>71</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J46" t="s" s="2">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>70</v>
       </c>
@@ -6810,7 +6856,7 @@
         <v>70</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>339</v>
+        <v>70</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>70</v>
@@ -6822,13 +6868,11 @@
         <v>70</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
-        <v>70</v>
+        <v>333</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>70</v>
@@ -6846,25 +6890,25 @@
         <v>70</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>70</v>
@@ -6872,7 +6916,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6883,28 +6927,32 @@
         <v>71</v>
       </c>
       <c r="F47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J47" t="s" s="2">
-        <v>344</v>
+        <v>120</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>70</v>
       </c>
@@ -6916,7 +6964,7 @@
         <v>70</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>70</v>
+        <v>341</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>70</v>
@@ -6952,25 +7000,25 @@
         <v>70</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>70</v>
@@ -6978,7 +7026,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6989,28 +7037,28 @@
         <v>71</v>
       </c>
       <c r="F48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J48" t="s" s="2">
-        <v>351</v>
+        <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7024,7 +7072,7 @@
         <v>70</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>70</v>
+        <v>349</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>70</v>
@@ -7060,25 +7108,25 @@
         <v>70</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>70</v>
@@ -7086,7 +7134,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7097,29 +7145,27 @@
         <v>71</v>
       </c>
       <c r="F49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J49" t="s" s="2">
-        <v>81</v>
+        <v>354</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>70</v>
@@ -7168,33 +7214,33 @@
         <v>70</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>70</v>
+        <v>358</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>178</v>
+        <v>359</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7202,35 +7248,33 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="F50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J50" t="s" s="2">
-        <v>278</v>
+        <v>361</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>281</v>
-      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>70</v>
       </c>
@@ -7278,33 +7322,33 @@
         <v>70</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>282</v>
+        <v>366</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>283</v>
+        <v>367</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>249</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7315,27 +7359,29 @@
         <v>71</v>
       </c>
       <c r="F51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>70</v>
-      </c>
       <c r="J51" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>93</v>
+        <v>369</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>70</v>
@@ -7384,67 +7430,69 @@
         <v>70</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>95</v>
+        <v>372</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>70</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>99</v>
+        <v>287</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>100</v>
+        <v>374</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>101</v>
+        <v>375</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>70</v>
       </c>
@@ -7480,45 +7528,45 @@
         <v>70</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>106</v>
+        <v>373</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>70</v>
+        <v>291</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>96</v>
+        <v>292</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>70</v>
+        <v>258</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7529,7 +7577,7 @@
         <v>71</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>70</v>
@@ -7538,20 +7586,18 @@
         <v>70</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>287</v>
+        <v>93</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>70</v>
@@ -7600,25 +7646,25 @@
         <v>70</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>290</v>
+        <v>95</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>291</v>
+        <v>70</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>70</v>
@@ -7626,18 +7672,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>70</v>
@@ -7646,19 +7692,19 @@
         <v>70</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>293</v>
+        <v>100</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>294</v>
+        <v>101</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>295</v>
+        <v>102</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7669,7 +7715,7 @@
         <v>70</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>296</v>
+        <v>70</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>70</v>
@@ -7684,47 +7730,49 @@
         <v>70</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="X54" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Y54" t="s" s="2">
-        <v>297</v>
+        <v>70</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>298</v>
+        <v>106</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>70</v>
@@ -7732,7 +7780,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7743,28 +7791,28 @@
         <v>71</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J55" t="s" s="2">
-        <v>300</v>
+        <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7814,25 +7862,25 @@
         <v>70</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>91</v>
+        <v>301</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>305</v>
+        <v>177</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>70</v>
@@ -7840,7 +7888,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7848,30 +7896,32 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>70</v>
-      </c>
       <c r="J56" t="s" s="2">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>93</v>
+        <v>303</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>70</v>
@@ -7881,7 +7931,7 @@
         <v>70</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>70</v>
+        <v>306</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>70</v>
@@ -7896,13 +7946,11 @@
         <v>70</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>70</v>
+        <v>307</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>70</v>
@@ -7920,25 +7968,25 @@
         <v>70</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>95</v>
+        <v>308</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>70</v>
@@ -7946,18 +7994,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>71</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>70</v>
@@ -7966,19 +8014,19 @@
         <v>70</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>99</v>
+        <v>310</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>100</v>
+        <v>311</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>101</v>
+        <v>312</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>102</v>
+        <v>313</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8016,37 +8064,37 @@
         <v>70</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>106</v>
+        <v>314</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>96</v>
+        <v>315</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>70</v>
@@ -8054,7 +8102,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8065,32 +8113,28 @@
         <v>71</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>70</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>309</v>
+        <v>93</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>70</v>
       </c>
@@ -8114,13 +8158,13 @@
         <v>70</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>313</v>
+        <v>70</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>314</v>
+        <v>70</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>70</v>
@@ -8138,25 +8182,25 @@
         <v>70</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>315</v>
+        <v>95</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>178</v>
+        <v>70</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>316</v>
+        <v>96</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>70</v>
@@ -8164,18 +8208,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>71</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>70</v>
@@ -8184,23 +8228,21 @@
         <v>70</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>318</v>
+        <v>99</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>319</v>
+        <v>100</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>320</v>
+        <v>101</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>70</v>
       </c>
@@ -8224,47 +8266,49 @@
         <v>70</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="X59" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Y59" t="s" s="2">
-        <v>323</v>
+        <v>70</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>324</v>
+        <v>106</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>325</v>
+        <v>70</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>316</v>
+        <v>96</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>70</v>
@@ -8272,7 +8316,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8283,31 +8327,31 @@
         <v>71</v>
       </c>
       <c r="F60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H60" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G60" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>70</v>
-      </c>
       <c r="I60" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>70</v>
@@ -8320,7 +8364,7 @@
         <v>70</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>331</v>
+        <v>70</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>70</v>
@@ -8332,13 +8376,13 @@
         <v>70</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>70</v>
+        <v>323</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>70</v>
+        <v>324</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>70</v>
@@ -8356,25 +8400,25 @@
         <v>70</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>333</v>
+        <v>177</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>70</v>
@@ -8382,7 +8426,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8393,30 +8437,32 @@
         <v>71</v>
       </c>
       <c r="F61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I61" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G61" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J61" t="s" s="2">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>70</v>
       </c>
@@ -8428,7 +8474,7 @@
         <v>70</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>339</v>
+        <v>70</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>70</v>
@@ -8440,13 +8486,11 @@
         <v>70</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="X61" s="2"/>
       <c r="Y61" t="s" s="2">
-        <v>70</v>
+        <v>333</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>70</v>
@@ -8464,25 +8508,25 @@
         <v>70</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>70</v>
@@ -8490,7 +8534,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8501,28 +8545,32 @@
         <v>71</v>
       </c>
       <c r="F62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I62" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G62" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J62" t="s" s="2">
-        <v>344</v>
+        <v>120</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>70</v>
       </c>
@@ -8534,7 +8582,7 @@
         <v>70</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>70</v>
+        <v>341</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>70</v>
@@ -8570,25 +8618,25 @@
         <v>70</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>70</v>
@@ -8596,7 +8644,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8607,28 +8655,28 @@
         <v>71</v>
       </c>
       <c r="F63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I63" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G63" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J63" t="s" s="2">
-        <v>351</v>
+        <v>92</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8642,7 +8690,7 @@
         <v>70</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>70</v>
+        <v>349</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>70</v>
@@ -8678,25 +8726,25 @@
         <v>70</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>70</v>
@@ -8704,7 +8752,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8715,29 +8763,27 @@
         <v>71</v>
       </c>
       <c r="F64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I64" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G64" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J64" t="s" s="2">
-        <v>81</v>
+        <v>354</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>70</v>
@@ -8786,25 +8832,25 @@
         <v>70</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>70</v>
+        <v>358</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>178</v>
+        <v>359</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>70</v>
@@ -8812,7 +8858,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8823,32 +8869,30 @@
         <v>71</v>
       </c>
       <c r="F65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I65" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G65" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J65" t="s" s="2">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>70</v>
       </c>
@@ -8896,28 +8940,28 @@
         <v>70</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>389</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" hidden="true">
@@ -8933,32 +8977,30 @@
         <v>71</v>
       </c>
       <c r="F66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I66" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G66" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J66" t="s" s="2">
-        <v>382</v>
+        <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>70</v>
       </c>
@@ -9006,33 +9048,33 @@
         <v>70</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>393</v>
+        <v>70</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>394</v>
+        <v>177</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>389</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9040,32 +9082,34 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I67" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="F67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J67" t="s" s="2">
-        <v>243</v>
+        <v>392</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>70</v>
@@ -9114,33 +9158,33 @@
         <v>70</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>70</v>
+        <v>397</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>400</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9151,28 +9195,32 @@
         <v>71</v>
       </c>
       <c r="F68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I68" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G68" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>70</v>
-      </c>
       <c r="J68" t="s" s="2">
-        <v>81</v>
+        <v>392</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>93</v>
+        <v>401</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>70</v>
       </c>
@@ -9220,44 +9268,44 @@
         <v>70</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>95</v>
+        <v>400</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>70</v>
+        <v>403</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>96</v>
+        <v>404</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>70</v>
+        <v>399</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>70</v>
@@ -9266,21 +9314,21 @@
         <v>70</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>99</v>
+        <v>252</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>100</v>
+        <v>406</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>70</v>
       </c>
@@ -9328,69 +9376,65 @@
         <v>70</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>106</v>
+        <v>405</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>96</v>
+        <v>409</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>70</v>
+        <v>410</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>253</v>
+        <v>70</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>71</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>70</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>254</v>
+        <v>93</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>70</v>
       </c>
@@ -9438,25 +9482,25 @@
         <v>70</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>256</v>
+        <v>95</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>70</v>
@@ -9464,18 +9508,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>71</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>70</v>
@@ -9484,21 +9528,21 @@
         <v>70</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>258</v>
+        <v>100</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>70</v>
       </c>
@@ -9546,25 +9590,25 @@
         <v>70</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>404</v>
+        <v>106</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>407</v>
+        <v>70</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>408</v>
+        <v>96</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>70</v>
@@ -9572,40 +9616,42 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>70</v>
+        <v>262</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>71</v>
       </c>
       <c r="F72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H72" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G72" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>70</v>
-      </c>
       <c r="I72" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>410</v>
+        <v>263</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N72" t="s" s="2">
-        <v>412</v>
+        <v>194</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>70</v>
@@ -9654,25 +9700,25 @@
         <v>70</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>409</v>
+        <v>265</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>413</v>
+        <v>70</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>414</v>
+        <v>177</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>70</v>
@@ -9680,7 +9726,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9691,29 +9737,29 @@
         <v>71</v>
       </c>
       <c r="F73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I73" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G73" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J73" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>416</v>
+        <v>267</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>70</v>
@@ -9762,25 +9808,25 @@
         <v>70</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ73" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AK73" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>70</v>
@@ -9788,7 +9834,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9799,29 +9845,29 @@
         <v>71</v>
       </c>
       <c r="F74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I74" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G74" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J74" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>70</v>
@@ -9870,33 +9916,33 @@
         <v>70</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ74" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9904,34 +9950,32 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I75" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="F75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J75" t="s" s="2">
-        <v>270</v>
+        <v>92</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>70</v>
@@ -9980,25 +10024,25 @@
         <v>70</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>70</v>
@@ -10006,7 +10050,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10017,31 +10061,29 @@
         <v>71</v>
       </c>
       <c r="F76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I76" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G76" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J76" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>70</v>
@@ -10090,33 +10132,33 @@
         <v>70</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ76" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10124,32 +10166,34 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G77" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G77" t="s" s="2">
-        <v>70</v>
-      </c>
       <c r="H77" t="s" s="2">
         <v>70</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="N77" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>70</v>
@@ -10174,13 +10218,13 @@
         <v>70</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>444</v>
+        <v>70</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>445</v>
+        <v>70</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>70</v>
@@ -10198,33 +10242,33 @@
         <v>70</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>448</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10235,28 +10279,32 @@
         <v>71</v>
       </c>
       <c r="F78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I78" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G78" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J78" t="s" s="2">
-        <v>243</v>
+        <v>444</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>70</v>
       </c>
@@ -10304,33 +10352,33 @@
         <v>70</v>
       </c>
       <c r="AE78" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>70</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10341,28 +10389,30 @@
         <v>71</v>
       </c>
       <c r="F79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I79" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G79" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>70</v>
-      </c>
       <c r="J79" t="s" s="2">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>93</v>
+        <v>451</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>94</v>
+        <v>452</v>
       </c>
       <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
+      <c r="N79" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>70</v>
       </c>
@@ -10386,13 +10436,13 @@
         <v>70</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>70</v>
+        <v>454</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>70</v>
+        <v>455</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>70</v>
@@ -10410,44 +10460,44 @@
         <v>70</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>95</v>
+        <v>450</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>70</v>
+        <v>456</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>96</v>
+        <v>457</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>70</v>
+        <v>458</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>71</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>70</v>
@@ -10456,20 +10506,18 @@
         <v>70</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>99</v>
+        <v>252</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>100</v>
+        <v>460</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>70</v>
@@ -10518,25 +10566,25 @@
         <v>70</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>106</v>
+        <v>459</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>70</v>
+        <v>462</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>96</v>
+        <v>463</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>70</v>
@@ -10544,43 +10592,39 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>253</v>
+        <v>70</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>71</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>70</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>254</v>
+        <v>93</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>70</v>
       </c>
@@ -10628,25 +10672,25 @@
         <v>70</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>256</v>
+        <v>95</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>70</v>
@@ -10654,18 +10698,18 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>70</v>
@@ -10674,21 +10718,21 @@
         <v>70</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>458</v>
+        <v>100</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>70</v>
       </c>
@@ -10736,25 +10780,25 @@
         <v>70</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>457</v>
+        <v>106</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>461</v>
+        <v>70</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>462</v>
+        <v>96</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>70</v>
@@ -10762,42 +10806,42 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>70</v>
+        <v>262</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H83" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="I83" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G83" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J83" t="s" s="2">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>464</v>
+        <v>263</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>465</v>
+        <v>264</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>466</v>
+        <v>102</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>467</v>
+        <v>194</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>70</v>
@@ -10822,13 +10866,13 @@
         <v>70</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>468</v>
+        <v>70</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>469</v>
+        <v>70</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>70</v>
@@ -10846,25 +10890,25 @@
         <v>70</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>463</v>
+        <v>265</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>470</v>
+        <v>70</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>471</v>
+        <v>177</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>70</v>
@@ -10872,7 +10916,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10880,34 +10924,32 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I84" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G84" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I84" t="s" s="2">
+      <c r="J84" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="J84" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="K84" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>70</v>
@@ -10956,25 +10998,25 @@
         <v>70</v>
       </c>
       <c r="AE84" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AK84" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>70</v>
@@ -10982,7 +11024,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10990,34 +11032,34 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>70</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>481</v>
+        <v>154</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>70</v>
@@ -11042,47 +11084,49 @@
         <v>70</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>70</v>
+        <v>478</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>70</v>
+        <v>479</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AB85" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="AC85" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="AE85" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="AF85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>70</v>
-      </c>
       <c r="AK85" t="s" s="2">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>70</v>
@@ -11090,7 +11134,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11101,29 +11145,31 @@
         <v>71</v>
       </c>
       <c r="F86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I86" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G86" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J86" t="s" s="2">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="M86" s="2"/>
+        <v>485</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="N86" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>70</v>
@@ -11172,32 +11218,896 @@
         <v>70</v>
       </c>
       <c r="AE86" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AF86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG86" t="s" s="2">
+      <c r="AK86" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G87" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH86" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AK86" t="s" s="2">
+      <c r="H87" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="AL86" t="s" s="2">
+      <c r="M87" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AL94" t="s" s="2">
         <v>70</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL86">
+  <autoFilter ref="A1:AL94">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11207,7 +12117,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI85">
+  <conditionalFormatting sqref="A2:AI93">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-message-header.xlsx
+++ b/docs/StructureDefinition-message-header.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T09:21:48+04:00</t>
+    <t>2022-11-19T09:53:21+04:00</t>
   </si>
   <si>
     <t>Publisher</t>
